--- a/Accuracy Test/RMSE.xlsx
+++ b/Accuracy Test/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Movie-Recommender-master\Item-Based Collaborative filtering fix\Accuracy Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876F96B5-8D30-4755-8AAC-DDFAEA53DB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5C3E2B-EAC9-41CF-A705-C62BA2E35115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11115" yWindow="5940" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,13 +216,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2840,27 +2840,27 @@
       <c r="G101" s="11"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="20">
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="18">
         <f>SUM(F2:F101)</f>
         <v>45.600478803884172</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="20">
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="18">
         <f>SQRT(F102/100)</f>
         <v>0.6752812658728522</v>
       </c>
